--- a/Daily_Summary_with_Prioritized_Signal.xlsx
+++ b/Daily_Summary_with_Prioritized_Signal.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\singh\Downloads\New Toy Bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBFE710F-A5DD-4E14-97D9-C288404B4D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9E616C-0435-4F4C-ACB2-B49440618F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2340" windowWidth="23175" windowHeight="12420" xr2:uid="{5126E1B4-11B8-4C46-9D7B-A4F34DC996FA}"/>
+    <workbookView xWindow="8940" yWindow="1680" windowWidth="18705" windowHeight="12420" xr2:uid="{5126E1B4-11B8-4C46-9D7B-A4F34DC996FA}"/>
   </bookViews>
   <sheets>
     <sheet name="NIFTY_Daily_Move_Summary" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NIFTY_Daily_Move_Summary!$A$1:$G$758</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -996,8 +999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0E35542-6092-4AD1-8995-7E0681A4E720}">
   <dimension ref="A1:G758"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A736" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F755" sqref="F755"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F752"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1006,7 +1009,7 @@
     <col min="2" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -1051,10 +1054,11 @@
         <v>9.1664979285386236E-3</v>
       </c>
       <c r="F2" s="1" t="str">
-        <f t="shared" ref="F2:F65" si="0">IF(E2 &lt;= -1%, "Very Strong Short",
- IF(E2 &lt;= -0.4%, "Moderate Short",
- IF(E2 &lt; 0.4%, "Sideways",
- IF(E2 &lt;= 1%, "Moderate Long", "Very Strong Long"))))</f>
+        <f>IF(E2 &lt;= -0.01, "Very Strong Short",
+ IF(E2 &lt;= -0.004, "Moderate Short",
+ IF(AND(E2 &gt;= -0.004, E2 &lt; 0), "Short Sideways",
+ IF(AND(E2 &gt;= 0, E2 &lt; 0.004), "Long Sideways",
+ IF(E2 &lt;= 0.01, "Moderate Long", "Very Strong Long")))))</f>
         <v>Moderate Long</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -1078,7 +1082,11 @@
         <v>8.4590028186059384E-3</v>
       </c>
       <c r="F3" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F3:F66" si="0">IF(E3 &lt;= -0.01, "Very Strong Short",
+ IF(E3 &lt;= -0.004, "Moderate Short",
+ IF(AND(E3 &gt;= -0.004, E3 &lt; 0), "Short Sideways",
+ IF(AND(E3 &gt;= 0, E3 &lt; 0.004), "Long Sideways",
+ IF(E3 &lt;= 0.01, "Moderate Long", "Very Strong Long")))))</f>
         <v>Moderate Long</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -1103,7 +1111,7 @@
       </c>
       <c r="F4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>23</v>
@@ -1127,7 +1135,7 @@
       </c>
       <c r="F5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>22</v>
@@ -1151,7 +1159,7 @@
       </c>
       <c r="F6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>20</v>
@@ -1175,7 +1183,7 @@
       </c>
       <c r="F7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>25</v>
@@ -1223,7 +1231,7 @@
       </c>
       <c r="F9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>25</v>
@@ -1319,7 +1327,7 @@
       </c>
       <c r="F13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>24</v>
@@ -1391,7 +1399,7 @@
       </c>
       <c r="F16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>25</v>
@@ -1463,7 +1471,7 @@
       </c>
       <c r="F19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>24</v>
@@ -1703,7 +1711,7 @@
       </c>
       <c r="F29" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>20</v>
@@ -1727,7 +1735,7 @@
       </c>
       <c r="F30" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>26</v>
@@ -1751,7 +1759,7 @@
       </c>
       <c r="F31" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>26</v>
@@ -1775,7 +1783,7 @@
       </c>
       <c r="F32" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>23</v>
@@ -1823,7 +1831,7 @@
       </c>
       <c r="F34" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>20</v>
@@ -1871,7 +1879,7 @@
       </c>
       <c r="F36" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>23</v>
@@ -1943,7 +1951,7 @@
       </c>
       <c r="F39" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>24</v>
@@ -2039,7 +2047,7 @@
       </c>
       <c r="F43" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>22</v>
@@ -2087,7 +2095,7 @@
       </c>
       <c r="F45" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>22</v>
@@ -2183,7 +2191,7 @@
       </c>
       <c r="F49" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>22</v>
@@ -2231,7 +2239,7 @@
       </c>
       <c r="F51" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>23</v>
@@ -2255,7 +2263,7 @@
       </c>
       <c r="F52" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>21</v>
@@ -2303,7 +2311,7 @@
       </c>
       <c r="F54" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>22</v>
@@ -2375,7 +2383,7 @@
       </c>
       <c r="F57" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>25</v>
@@ -2590,11 +2598,8 @@
         <v>-5.2308665672980408E-4</v>
       </c>
       <c r="F66" s="1" t="str">
-        <f t="shared" ref="F66:F129" si="1">IF(E66 &lt;= -1%, "Very Strong Short",
- IF(E66 &lt;= -0.4%, "Moderate Short",
- IF(E66 &lt; 0.4%, "Sideways",
- IF(E66 &lt;= 1%, "Moderate Long", "Very Strong Long"))))</f>
-        <v>Sideways</v>
+        <f t="shared" si="0"/>
+        <v>Short Sideways</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>23</v>
@@ -2617,7 +2622,11 @@
         <v>-8.7491327304586759E-3</v>
       </c>
       <c r="F67" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F67:F130" si="1">IF(E67 &lt;= -0.01, "Very Strong Short",
+ IF(E67 &lt;= -0.004, "Moderate Short",
+ IF(AND(E67 &gt;= -0.004, E67 &lt; 0), "Short Sideways",
+ IF(AND(E67 &gt;= 0, E67 &lt; 0.004), "Long Sideways",
+ IF(E67 &lt;= 0.01, "Moderate Long", "Very Strong Long")))))</f>
         <v>Moderate Short</v>
       </c>
       <c r="G67" s="1" t="s">
@@ -2642,7 +2651,7 @@
       </c>
       <c r="F68" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>23</v>
@@ -2738,7 +2747,7 @@
       </c>
       <c r="F72" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>20</v>
@@ -2762,7 +2771,7 @@
       </c>
       <c r="F73" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>26</v>
@@ -2954,7 +2963,7 @@
       </c>
       <c r="F81" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>25</v>
@@ -2978,7 +2987,7 @@
       </c>
       <c r="F82" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>23</v>
@@ -3002,7 +3011,7 @@
       </c>
       <c r="F83" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>25</v>
@@ -3098,7 +3107,7 @@
       </c>
       <c r="F87" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>22</v>
@@ -3170,7 +3179,7 @@
       </c>
       <c r="F90" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>22</v>
@@ -3194,7 +3203,7 @@
       </c>
       <c r="F91" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>25</v>
@@ -3218,7 +3227,7 @@
       </c>
       <c r="F92" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>25</v>
@@ -3266,7 +3275,7 @@
       </c>
       <c r="F94" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>20</v>
@@ -3338,7 +3347,7 @@
       </c>
       <c r="F97" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>20</v>
@@ -3386,7 +3395,7 @@
       </c>
       <c r="F99" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>21</v>
@@ -3410,7 +3419,7 @@
       </c>
       <c r="F100" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>20</v>
@@ -3434,7 +3443,7 @@
       </c>
       <c r="F101" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>20</v>
@@ -3506,7 +3515,7 @@
       </c>
       <c r="F104" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>23</v>
@@ -3554,7 +3563,7 @@
       </c>
       <c r="F106" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>23</v>
@@ -3578,7 +3587,7 @@
       </c>
       <c r="F107" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>22</v>
@@ -3602,7 +3611,7 @@
       </c>
       <c r="F108" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>21</v>
@@ -3650,7 +3659,7 @@
       </c>
       <c r="F110" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>20</v>
@@ -3698,7 +3707,7 @@
       </c>
       <c r="F112" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>20</v>
@@ -3722,7 +3731,7 @@
       </c>
       <c r="F113" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>24</v>
@@ -3770,7 +3779,7 @@
       </c>
       <c r="F115" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>20</v>
@@ -3818,7 +3827,7 @@
       </c>
       <c r="F117" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G117" s="1" t="s">
         <v>24</v>
@@ -3866,7 +3875,7 @@
       </c>
       <c r="F119" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>25</v>
@@ -3962,7 +3971,7 @@
       </c>
       <c r="F123" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G123" s="1" t="s">
         <v>20</v>
@@ -4010,7 +4019,7 @@
       </c>
       <c r="F125" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G125" s="1" t="s">
         <v>23</v>
@@ -4106,7 +4115,7 @@
       </c>
       <c r="F129" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G129" s="1" t="s">
         <v>20</v>
@@ -4129,11 +4138,8 @@
         <v>3.7798317009242652E-3</v>
       </c>
       <c r="F130" s="1" t="str">
-        <f t="shared" ref="F130:F193" si="2">IF(E130 &lt;= -1%, "Very Strong Short",
- IF(E130 &lt;= -0.4%, "Moderate Short",
- IF(E130 &lt; 0.4%, "Sideways",
- IF(E130 &lt;= 1%, "Moderate Long", "Very Strong Long"))))</f>
-        <v>Sideways</v>
+        <f t="shared" si="1"/>
+        <v>Long Sideways</v>
       </c>
       <c r="G130" s="1" t="s">
         <v>24</v>
@@ -4156,7 +4162,11 @@
         <v>-4.7110659117146131E-3</v>
       </c>
       <c r="F131" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="F131:F194" si="2">IF(E131 &lt;= -0.01, "Very Strong Short",
+ IF(E131 &lt;= -0.004, "Moderate Short",
+ IF(AND(E131 &gt;= -0.004, E131 &lt; 0), "Short Sideways",
+ IF(AND(E131 &gt;= 0, E131 &lt; 0.004), "Long Sideways",
+ IF(E131 &lt;= 0.01, "Moderate Long", "Very Strong Long")))))</f>
         <v>Moderate Short</v>
       </c>
       <c r="G131" s="1" t="s">
@@ -4205,7 +4215,7 @@
       </c>
       <c r="F133" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G133" s="1" t="s">
         <v>20</v>
@@ -4253,7 +4263,7 @@
       </c>
       <c r="F135" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G135" s="1" t="s">
         <v>23</v>
@@ -4349,7 +4359,7 @@
       </c>
       <c r="F139" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G139" s="1" t="s">
         <v>24</v>
@@ -4373,7 +4383,7 @@
       </c>
       <c r="F140" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G140" s="1" t="s">
         <v>20</v>
@@ -4421,7 +4431,7 @@
       </c>
       <c r="F142" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G142" s="1" t="s">
         <v>22</v>
@@ -4493,7 +4503,7 @@
       </c>
       <c r="F145" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G145" s="1" t="s">
         <v>20</v>
@@ -4565,7 +4575,7 @@
       </c>
       <c r="F148" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G148" s="1" t="s">
         <v>20</v>
@@ -4637,7 +4647,7 @@
       </c>
       <c r="F151" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G151" s="1" t="s">
         <v>20</v>
@@ -4661,7 +4671,7 @@
       </c>
       <c r="F152" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G152" s="1" t="s">
         <v>20</v>
@@ -4685,7 +4695,7 @@
       </c>
       <c r="F153" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G153" s="1" t="s">
         <v>23</v>
@@ -4709,7 +4719,7 @@
       </c>
       <c r="F154" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G154" s="1" t="s">
         <v>20</v>
@@ -4781,7 +4791,7 @@
       </c>
       <c r="F157" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G157" s="1" t="s">
         <v>22</v>
@@ -4829,7 +4839,7 @@
       </c>
       <c r="F159" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G159" s="1" t="s">
         <v>20</v>
@@ -4853,7 +4863,7 @@
       </c>
       <c r="F160" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G160" s="1" t="s">
         <v>24</v>
@@ -4949,7 +4959,7 @@
       </c>
       <c r="F164" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G164" s="1" t="s">
         <v>23</v>
@@ -5021,7 +5031,7 @@
       </c>
       <c r="F167" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G167" s="1" t="s">
         <v>20</v>
@@ -5069,7 +5079,7 @@
       </c>
       <c r="F169" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G169" s="1" t="s">
         <v>20</v>
@@ -5093,7 +5103,7 @@
       </c>
       <c r="F170" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G170" s="1" t="s">
         <v>24</v>
@@ -5261,7 +5271,7 @@
       </c>
       <c r="F177" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G177" s="1" t="s">
         <v>20</v>
@@ -5405,7 +5415,7 @@
       </c>
       <c r="F183" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G183" s="1" t="s">
         <v>20</v>
@@ -5501,7 +5511,7 @@
       </c>
       <c r="F187" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G187" s="1" t="s">
         <v>24</v>
@@ -5573,7 +5583,7 @@
       </c>
       <c r="F190" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G190" s="1" t="s">
         <v>20</v>
@@ -5597,7 +5607,7 @@
       </c>
       <c r="F191" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G191" s="1" t="s">
         <v>22</v>
@@ -5668,11 +5678,8 @@
         <v>2.20631057474903E-3</v>
       </c>
       <c r="F194" s="1" t="str">
-        <f t="shared" ref="F194:F257" si="3">IF(E194 &lt;= -1%, "Very Strong Short",
- IF(E194 &lt;= -0.4%, "Moderate Short",
- IF(E194 &lt; 0.4%, "Sideways",
- IF(E194 &lt;= 1%, "Moderate Long", "Very Strong Long"))))</f>
-        <v>Sideways</v>
+        <f t="shared" si="2"/>
+        <v>Long Sideways</v>
       </c>
       <c r="G194" s="1" t="s">
         <v>23</v>
@@ -5695,7 +5702,11 @@
         <v>9.1389547024548906E-3</v>
       </c>
       <c r="F195" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="F195:F258" si="3">IF(E195 &lt;= -0.01, "Very Strong Short",
+ IF(E195 &lt;= -0.004, "Moderate Short",
+ IF(AND(E195 &gt;= -0.004, E195 &lt; 0), "Short Sideways",
+ IF(AND(E195 &gt;= 0, E195 &lt; 0.004), "Long Sideways",
+ IF(E195 &lt;= 0.01, "Moderate Long", "Very Strong Long")))))</f>
         <v>Moderate Long</v>
       </c>
       <c r="G195" s="1" t="s">
@@ -5720,7 +5731,7 @@
       </c>
       <c r="F196" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G196" s="1" t="s">
         <v>23</v>
@@ -5744,7 +5755,7 @@
       </c>
       <c r="F197" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G197" s="1" t="s">
         <v>24</v>
@@ -5816,7 +5827,7 @@
       </c>
       <c r="F200" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G200" s="1" t="s">
         <v>20</v>
@@ -5864,7 +5875,7 @@
       </c>
       <c r="F202" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G202" s="1" t="s">
         <v>24</v>
@@ -5888,7 +5899,7 @@
       </c>
       <c r="F203" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G203" s="1" t="s">
         <v>23</v>
@@ -5912,7 +5923,7 @@
       </c>
       <c r="F204" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G204" s="1" t="s">
         <v>20</v>
@@ -5936,7 +5947,7 @@
       </c>
       <c r="F205" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G205" s="1" t="s">
         <v>20</v>
@@ -5984,7 +5995,7 @@
       </c>
       <c r="F207" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G207" s="1" t="s">
         <v>20</v>
@@ -6008,7 +6019,7 @@
       </c>
       <c r="F208" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G208" s="1" t="s">
         <v>23</v>
@@ -6104,7 +6115,7 @@
       </c>
       <c r="F212" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G212" s="1" t="s">
         <v>23</v>
@@ -6200,7 +6211,7 @@
       </c>
       <c r="F216" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G216" s="1" t="s">
         <v>20</v>
@@ -6224,7 +6235,7 @@
       </c>
       <c r="F217" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G217" s="1" t="s">
         <v>20</v>
@@ -6248,7 +6259,7 @@
       </c>
       <c r="F218" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G218" s="1" t="s">
         <v>20</v>
@@ -6272,7 +6283,7 @@
       </c>
       <c r="F219" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G219" s="1" t="s">
         <v>22</v>
@@ -6368,7 +6379,7 @@
       </c>
       <c r="F223" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G223" s="1" t="s">
         <v>20</v>
@@ -6440,7 +6451,7 @@
       </c>
       <c r="F226" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G226" s="1" t="s">
         <v>23</v>
@@ -6464,7 +6475,7 @@
       </c>
       <c r="F227" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G227" s="1" t="s">
         <v>23</v>
@@ -6488,7 +6499,7 @@
       </c>
       <c r="F228" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G228" s="1" t="s">
         <v>23</v>
@@ -6560,7 +6571,7 @@
       </c>
       <c r="F231" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G231" s="1" t="s">
         <v>20</v>
@@ -6608,7 +6619,7 @@
       </c>
       <c r="F233" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G233" s="1" t="s">
         <v>25</v>
@@ -6632,7 +6643,7 @@
       </c>
       <c r="F234" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G234" s="1" t="s">
         <v>24</v>
@@ -6656,7 +6667,7 @@
       </c>
       <c r="F235" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G235" s="1" t="s">
         <v>23</v>
@@ -6680,7 +6691,7 @@
       </c>
       <c r="F236" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G236" s="1" t="s">
         <v>24</v>
@@ -6752,7 +6763,7 @@
       </c>
       <c r="F239" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G239" s="1" t="s">
         <v>20</v>
@@ -6776,7 +6787,7 @@
       </c>
       <c r="F240" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G240" s="1" t="s">
         <v>22</v>
@@ -6824,7 +6835,7 @@
       </c>
       <c r="F242" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G242" s="1" t="s">
         <v>20</v>
@@ -6848,7 +6859,7 @@
       </c>
       <c r="F243" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G243" s="1" t="s">
         <v>22</v>
@@ -6896,7 +6907,7 @@
       </c>
       <c r="F245" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G245" s="1" t="s">
         <v>20</v>
@@ -6920,7 +6931,7 @@
       </c>
       <c r="F246" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G246" s="1" t="s">
         <v>24</v>
@@ -6944,7 +6955,7 @@
       </c>
       <c r="F247" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G247" s="1" t="s">
         <v>26</v>
@@ -7016,7 +7027,7 @@
       </c>
       <c r="F250" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G250" s="1" t="s">
         <v>25</v>
@@ -7136,7 +7147,7 @@
       </c>
       <c r="F255" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G255" s="1" t="s">
         <v>26</v>
@@ -7160,7 +7171,7 @@
       </c>
       <c r="F256" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G256" s="1" t="s">
         <v>21</v>
@@ -7207,10 +7218,7 @@
         <v>-8.4883543624833004E-3</v>
       </c>
       <c r="F258" s="1" t="str">
-        <f t="shared" ref="F258:F321" si="4">IF(E258 &lt;= -1%, "Very Strong Short",
- IF(E258 &lt;= -0.4%, "Moderate Short",
- IF(E258 &lt; 0.4%, "Sideways",
- IF(E258 &lt;= 1%, "Moderate Long", "Very Strong Long"))))</f>
+        <f t="shared" si="3"/>
         <v>Moderate Short</v>
       </c>
       <c r="G258" s="1" t="s">
@@ -7234,8 +7242,12 @@
         <v>1.2465988037018371E-3</v>
       </c>
       <c r="F259" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Sideways</v>
+        <f t="shared" ref="F259:F322" si="4">IF(E259 &lt;= -0.01, "Very Strong Short",
+ IF(E259 &lt;= -0.004, "Moderate Short",
+ IF(AND(E259 &gt;= -0.004, E259 &lt; 0), "Short Sideways",
+ IF(AND(E259 &gt;= 0, E259 &lt; 0.004), "Long Sideways",
+ IF(E259 &lt;= 0.01, "Moderate Long", "Very Strong Long")))))</f>
+        <v>Long Sideways</v>
       </c>
       <c r="G259" s="1" t="s">
         <v>22</v>
@@ -7283,7 +7295,7 @@
       </c>
       <c r="F261" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G261" s="1" t="s">
         <v>22</v>
@@ -7307,7 +7319,7 @@
       </c>
       <c r="F262" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G262" s="1" t="s">
         <v>25</v>
@@ -7379,7 +7391,7 @@
       </c>
       <c r="F265" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G265" s="1" t="s">
         <v>26</v>
@@ -7475,7 +7487,7 @@
       </c>
       <c r="F269" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G269" s="1" t="s">
         <v>20</v>
@@ -7499,7 +7511,7 @@
       </c>
       <c r="F270" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G270" s="1" t="s">
         <v>22</v>
@@ -7571,7 +7583,7 @@
       </c>
       <c r="F273" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G273" s="1" t="s">
         <v>24</v>
@@ -7619,7 +7631,7 @@
       </c>
       <c r="F275" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G275" s="1" t="s">
         <v>20</v>
@@ -7739,7 +7751,7 @@
       </c>
       <c r="F280" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G280" s="1" t="s">
         <v>20</v>
@@ -7763,7 +7775,7 @@
       </c>
       <c r="F281" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G281" s="1" t="s">
         <v>20</v>
@@ -7835,7 +7847,7 @@
       </c>
       <c r="F284" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G284" s="1" t="s">
         <v>24</v>
@@ -7859,7 +7871,7 @@
       </c>
       <c r="F285" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G285" s="1" t="s">
         <v>20</v>
@@ -7907,7 +7919,7 @@
       </c>
       <c r="F287" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G287" s="1" t="s">
         <v>22</v>
@@ -7955,7 +7967,7 @@
       </c>
       <c r="F289" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G289" s="1" t="s">
         <v>20</v>
@@ -7979,7 +7991,7 @@
       </c>
       <c r="F290" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G290" s="1" t="s">
         <v>22</v>
@@ -8003,7 +8015,7 @@
       </c>
       <c r="F291" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G291" s="1" t="s">
         <v>23</v>
@@ -8051,7 +8063,7 @@
       </c>
       <c r="F293" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G293" s="1" t="s">
         <v>24</v>
@@ -8075,7 +8087,7 @@
       </c>
       <c r="F294" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G294" s="1" t="s">
         <v>24</v>
@@ -8099,7 +8111,7 @@
       </c>
       <c r="F295" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G295" s="1" t="s">
         <v>24</v>
@@ -8195,7 +8207,7 @@
       </c>
       <c r="F299" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G299" s="1" t="s">
         <v>23</v>
@@ -8219,7 +8231,7 @@
       </c>
       <c r="F300" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G300" s="1" t="s">
         <v>20</v>
@@ -8315,7 +8327,7 @@
       </c>
       <c r="F304" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G304" s="1" t="s">
         <v>24</v>
@@ -8339,7 +8351,7 @@
       </c>
       <c r="F305" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G305" s="1" t="s">
         <v>23</v>
@@ -8363,7 +8375,7 @@
       </c>
       <c r="F306" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G306" s="1" t="s">
         <v>24</v>
@@ -8411,7 +8423,7 @@
       </c>
       <c r="F308" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G308" s="1" t="s">
         <v>21</v>
@@ -8483,7 +8495,7 @@
       </c>
       <c r="F311" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G311" s="1" t="s">
         <v>24</v>
@@ -8507,7 +8519,7 @@
       </c>
       <c r="F312" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G312" s="1" t="s">
         <v>24</v>
@@ -8531,7 +8543,7 @@
       </c>
       <c r="F313" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G313" s="1" t="s">
         <v>20</v>
@@ -8555,7 +8567,7 @@
       </c>
       <c r="F314" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G314" s="1" t="s">
         <v>20</v>
@@ -8746,10 +8758,7 @@
         <v>9.0968027941278218E-3</v>
       </c>
       <c r="F322" s="1" t="str">
-        <f t="shared" ref="F322:F385" si="5">IF(E322 &lt;= -1%, "Very Strong Short",
- IF(E322 &lt;= -0.4%, "Moderate Short",
- IF(E322 &lt; 0.4%, "Sideways",
- IF(E322 &lt;= 1%, "Moderate Long", "Very Strong Long"))))</f>
+        <f t="shared" si="4"/>
         <v>Moderate Long</v>
       </c>
       <c r="G322" s="1" t="s">
@@ -8773,7 +8782,11 @@
         <v>6.1706920062875037E-3</v>
       </c>
       <c r="F323" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="F323:F386" si="5">IF(E323 &lt;= -0.01, "Very Strong Short",
+ IF(E323 &lt;= -0.004, "Moderate Short",
+ IF(AND(E323 &gt;= -0.004, E323 &lt; 0), "Short Sideways",
+ IF(AND(E323 &gt;= 0, E323 &lt; 0.004), "Long Sideways",
+ IF(E323 &lt;= 0.01, "Moderate Long", "Very Strong Long")))))</f>
         <v>Moderate Long</v>
       </c>
       <c r="G323" s="1" t="s">
@@ -8798,7 +8811,7 @@
       </c>
       <c r="F324" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G324" s="1" t="s">
         <v>23</v>
@@ -8822,7 +8835,7 @@
       </c>
       <c r="F325" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G325" s="1" t="s">
         <v>20</v>
@@ -8846,7 +8859,7 @@
       </c>
       <c r="F326" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G326" s="1" t="s">
         <v>20</v>
@@ -8918,7 +8931,7 @@
       </c>
       <c r="F329" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G329" s="1" t="s">
         <v>26</v>
@@ -9086,7 +9099,7 @@
       </c>
       <c r="F336" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G336" s="1" t="s">
         <v>24</v>
@@ -9206,7 +9219,7 @@
       </c>
       <c r="F341" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G341" s="1" t="s">
         <v>24</v>
@@ -9230,7 +9243,7 @@
       </c>
       <c r="F342" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G342" s="1" t="s">
         <v>20</v>
@@ -9254,7 +9267,7 @@
       </c>
       <c r="F343" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G343" s="1" t="s">
         <v>24</v>
@@ -9278,7 +9291,7 @@
       </c>
       <c r="F344" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G344" s="1" t="s">
         <v>23</v>
@@ -9398,7 +9411,7 @@
       </c>
       <c r="F349" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G349" s="1" t="s">
         <v>20</v>
@@ -9422,7 +9435,7 @@
       </c>
       <c r="F350" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G350" s="1" t="s">
         <v>23</v>
@@ -9470,7 +9483,7 @@
       </c>
       <c r="F352" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G352" s="1" t="s">
         <v>22</v>
@@ -9494,7 +9507,7 @@
       </c>
       <c r="F353" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G353" s="1" t="s">
         <v>25</v>
@@ -9518,7 +9531,7 @@
       </c>
       <c r="F354" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G354" s="1" t="s">
         <v>20</v>
@@ -9590,7 +9603,7 @@
       </c>
       <c r="F357" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G357" s="1" t="s">
         <v>22</v>
@@ -9686,7 +9699,7 @@
       </c>
       <c r="F361" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G361" s="1" t="s">
         <v>20</v>
@@ -9710,7 +9723,7 @@
       </c>
       <c r="F362" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G362" s="1" t="s">
         <v>22</v>
@@ -9734,7 +9747,7 @@
       </c>
       <c r="F363" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G363" s="1" t="s">
         <v>26</v>
@@ -9758,7 +9771,7 @@
       </c>
       <c r="F364" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G364" s="1" t="s">
         <v>24</v>
@@ -9806,7 +9819,7 @@
       </c>
       <c r="F366" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G366" s="1" t="s">
         <v>23</v>
@@ -9878,7 +9891,7 @@
       </c>
       <c r="F369" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G369" s="1" t="s">
         <v>20</v>
@@ -9902,7 +9915,7 @@
       </c>
       <c r="F370" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G370" s="1" t="s">
         <v>23</v>
@@ -10070,7 +10083,7 @@
       </c>
       <c r="F377" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G377" s="1" t="s">
         <v>24</v>
@@ -10094,7 +10107,7 @@
       </c>
       <c r="F378" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G378" s="1" t="s">
         <v>24</v>
@@ -10118,7 +10131,7 @@
       </c>
       <c r="F379" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G379" s="1" t="s">
         <v>20</v>
@@ -10190,7 +10203,7 @@
       </c>
       <c r="F382" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G382" s="1" t="s">
         <v>20</v>
@@ -10238,7 +10251,7 @@
       </c>
       <c r="F384" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G384" s="1" t="s">
         <v>23</v>
@@ -10262,7 +10275,7 @@
       </c>
       <c r="F385" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G385" s="1" t="s">
         <v>25</v>
@@ -10285,11 +10298,8 @@
         <v>1.3183031966909756E-3</v>
       </c>
       <c r="F386" s="1" t="str">
-        <f t="shared" ref="F386:F449" si="6">IF(E386 &lt;= -1%, "Very Strong Short",
- IF(E386 &lt;= -0.4%, "Moderate Short",
- IF(E386 &lt; 0.4%, "Sideways",
- IF(E386 &lt;= 1%, "Moderate Long", "Very Strong Long"))))</f>
-        <v>Sideways</v>
+        <f t="shared" si="5"/>
+        <v>Long Sideways</v>
       </c>
       <c r="G386" s="1" t="s">
         <v>20</v>
@@ -10312,7 +10322,11 @@
         <v>1.142651296364019E-2</v>
       </c>
       <c r="F387" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="F387:F450" si="6">IF(E387 &lt;= -0.01, "Very Strong Short",
+ IF(E387 &lt;= -0.004, "Moderate Short",
+ IF(AND(E387 &gt;= -0.004, E387 &lt; 0), "Short Sideways",
+ IF(AND(E387 &gt;= 0, E387 &lt; 0.004), "Long Sideways",
+ IF(E387 &lt;= 0.01, "Moderate Long", "Very Strong Long")))))</f>
         <v>Very Strong Long</v>
       </c>
       <c r="G387" s="1" t="s">
@@ -10361,7 +10375,7 @@
       </c>
       <c r="F389" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G389" s="1" t="s">
         <v>22</v>
@@ -10457,7 +10471,7 @@
       </c>
       <c r="F393" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G393" s="1" t="s">
         <v>24</v>
@@ -10625,7 +10639,7 @@
       </c>
       <c r="F400" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G400" s="1" t="s">
         <v>22</v>
@@ -10673,7 +10687,7 @@
       </c>
       <c r="F402" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G402" s="1" t="s">
         <v>23</v>
@@ -10721,7 +10735,7 @@
       </c>
       <c r="F404" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G404" s="1" t="s">
         <v>20</v>
@@ -10769,7 +10783,7 @@
       </c>
       <c r="F406" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G406" s="1" t="s">
         <v>20</v>
@@ -10865,7 +10879,7 @@
       </c>
       <c r="F410" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G410" s="1" t="s">
         <v>20</v>
@@ -10913,7 +10927,7 @@
       </c>
       <c r="F412" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G412" s="1" t="s">
         <v>24</v>
@@ -10937,7 +10951,7 @@
       </c>
       <c r="F413" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G413" s="1" t="s">
         <v>23</v>
@@ -11009,7 +11023,7 @@
       </c>
       <c r="F416" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G416" s="1" t="s">
         <v>23</v>
@@ -11057,7 +11071,7 @@
       </c>
       <c r="F418" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G418" s="1" t="s">
         <v>24</v>
@@ -11105,7 +11119,7 @@
       </c>
       <c r="F420" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G420" s="1" t="s">
         <v>22</v>
@@ -11153,7 +11167,7 @@
       </c>
       <c r="F422" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G422" s="1" t="s">
         <v>24</v>
@@ -11177,7 +11191,7 @@
       </c>
       <c r="F423" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G423" s="1" t="s">
         <v>24</v>
@@ -11201,7 +11215,7 @@
       </c>
       <c r="F424" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G424" s="1" t="s">
         <v>23</v>
@@ -11249,7 +11263,7 @@
       </c>
       <c r="F426" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G426" s="1" t="s">
         <v>20</v>
@@ -11297,7 +11311,7 @@
       </c>
       <c r="F428" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G428" s="1" t="s">
         <v>20</v>
@@ -11393,7 +11407,7 @@
       </c>
       <c r="F432" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G432" s="1" t="s">
         <v>23</v>
@@ -11441,7 +11455,7 @@
       </c>
       <c r="F434" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G434" s="1" t="s">
         <v>24</v>
@@ -11489,7 +11503,7 @@
       </c>
       <c r="F436" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G436" s="1" t="s">
         <v>21</v>
@@ -11609,7 +11623,7 @@
       </c>
       <c r="F441" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G441" s="1" t="s">
         <v>20</v>
@@ -11633,7 +11647,7 @@
       </c>
       <c r="F442" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G442" s="1" t="s">
         <v>20</v>
@@ -11657,7 +11671,7 @@
       </c>
       <c r="F443" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G443" s="1" t="s">
         <v>24</v>
@@ -11681,7 +11695,7 @@
       </c>
       <c r="F444" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G444" s="1" t="s">
         <v>23</v>
@@ -11729,7 +11743,7 @@
       </c>
       <c r="F446" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G446" s="1" t="s">
         <v>24</v>
@@ -11824,10 +11838,7 @@
         <v>-5.594342799416255E-3</v>
       </c>
       <c r="F450" s="1" t="str">
-        <f t="shared" ref="F450:F513" si="7">IF(E450 &lt;= -1%, "Very Strong Short",
- IF(E450 &lt;= -0.4%, "Moderate Short",
- IF(E450 &lt; 0.4%, "Sideways",
- IF(E450 &lt;= 1%, "Moderate Long", "Very Strong Long"))))</f>
+        <f t="shared" si="6"/>
         <v>Moderate Short</v>
       </c>
       <c r="G450" s="1" t="s">
@@ -11851,7 +11862,11 @@
         <v>-6.865210697176838E-3</v>
       </c>
       <c r="F451" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="F451:F514" si="7">IF(E451 &lt;= -0.01, "Very Strong Short",
+ IF(E451 &lt;= -0.004, "Moderate Short",
+ IF(AND(E451 &gt;= -0.004, E451 &lt; 0), "Short Sideways",
+ IF(AND(E451 &gt;= 0, E451 &lt; 0.004), "Long Sideways",
+ IF(E451 &lt;= 0.01, "Moderate Long", "Very Strong Long")))))</f>
         <v>Moderate Short</v>
       </c>
       <c r="G451" s="1" t="s">
@@ -11924,7 +11939,7 @@
       </c>
       <c r="F454" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G454" s="1" t="s">
         <v>24</v>
@@ -11948,7 +11963,7 @@
       </c>
       <c r="F455" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G455" s="1" t="s">
         <v>22</v>
@@ -12044,7 +12059,7 @@
       </c>
       <c r="F459" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G459" s="1" t="s">
         <v>22</v>
@@ -12068,7 +12083,7 @@
       </c>
       <c r="F460" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G460" s="1" t="s">
         <v>26</v>
@@ -12116,7 +12131,7 @@
       </c>
       <c r="F462" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G462" s="1" t="s">
         <v>24</v>
@@ -12164,7 +12179,7 @@
       </c>
       <c r="F464" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G464" s="1" t="s">
         <v>25</v>
@@ -12236,7 +12251,7 @@
       </c>
       <c r="F467" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G467" s="1" t="s">
         <v>26</v>
@@ -12284,7 +12299,7 @@
       </c>
       <c r="F469" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G469" s="1" t="s">
         <v>20</v>
@@ -12332,7 +12347,7 @@
       </c>
       <c r="F471" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G471" s="1" t="s">
         <v>24</v>
@@ -12356,7 +12371,7 @@
       </c>
       <c r="F472" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G472" s="1" t="s">
         <v>21</v>
@@ -12380,7 +12395,7 @@
       </c>
       <c r="F473" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G473" s="1" t="s">
         <v>20</v>
@@ -12404,7 +12419,7 @@
       </c>
       <c r="F474" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G474" s="1" t="s">
         <v>22</v>
@@ -12452,7 +12467,7 @@
       </c>
       <c r="F476" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G476" s="1" t="s">
         <v>20</v>
@@ -12476,7 +12491,7 @@
       </c>
       <c r="F477" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G477" s="1" t="s">
         <v>24</v>
@@ -12500,7 +12515,7 @@
       </c>
       <c r="F478" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G478" s="1" t="s">
         <v>23</v>
@@ -12572,7 +12587,7 @@
       </c>
       <c r="F481" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G481" s="1" t="s">
         <v>20</v>
@@ -12716,7 +12731,7 @@
       </c>
       <c r="F487" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G487" s="1" t="s">
         <v>24</v>
@@ -12740,7 +12755,7 @@
       </c>
       <c r="F488" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G488" s="1" t="s">
         <v>22</v>
@@ -12764,7 +12779,7 @@
       </c>
       <c r="F489" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G489" s="1" t="s">
         <v>20</v>
@@ -12788,7 +12803,7 @@
       </c>
       <c r="F490" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G490" s="1" t="s">
         <v>20</v>
@@ -12812,7 +12827,7 @@
       </c>
       <c r="F491" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G491" s="1" t="s">
         <v>24</v>
@@ -12836,7 +12851,7 @@
       </c>
       <c r="F492" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G492" s="1" t="s">
         <v>20</v>
@@ -12860,7 +12875,7 @@
       </c>
       <c r="F493" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G493" s="1" t="s">
         <v>20</v>
@@ -12884,7 +12899,7 @@
       </c>
       <c r="F494" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G494" s="1" t="s">
         <v>20</v>
@@ -12908,7 +12923,7 @@
       </c>
       <c r="F495" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G495" s="1" t="s">
         <v>26</v>
@@ -12932,7 +12947,7 @@
       </c>
       <c r="F496" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G496" s="1" t="s">
         <v>23</v>
@@ -13028,7 +13043,7 @@
       </c>
       <c r="F500" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G500" s="1" t="s">
         <v>22</v>
@@ -13076,7 +13091,7 @@
       </c>
       <c r="F502" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G502" s="1" t="s">
         <v>24</v>
@@ -13124,7 +13139,7 @@
       </c>
       <c r="F504" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G504" s="1" t="s">
         <v>26</v>
@@ -13148,7 +13163,7 @@
       </c>
       <c r="F505" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G505" s="1" t="s">
         <v>20</v>
@@ -13172,7 +13187,7 @@
       </c>
       <c r="F506" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G506" s="1" t="s">
         <v>23</v>
@@ -13244,7 +13259,7 @@
       </c>
       <c r="F509" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G509" s="1" t="s">
         <v>23</v>
@@ -13292,7 +13307,7 @@
       </c>
       <c r="F511" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G511" s="1" t="s">
         <v>23</v>
@@ -13316,7 +13331,7 @@
       </c>
       <c r="F512" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G512" s="1" t="s">
         <v>23</v>
@@ -13363,10 +13378,7 @@
         <v>-1.0884707580586839E-2</v>
       </c>
       <c r="F514" s="1" t="str">
-        <f t="shared" ref="F514:F577" si="8">IF(E514 &lt;= -1%, "Very Strong Short",
- IF(E514 &lt;= -0.4%, "Moderate Short",
- IF(E514 &lt; 0.4%, "Sideways",
- IF(E514 &lt;= 1%, "Moderate Long", "Very Strong Long"))))</f>
+        <f t="shared" si="7"/>
         <v>Very Strong Short</v>
       </c>
       <c r="G514" s="1" t="s">
@@ -13390,8 +13402,12 @@
         <v>-8.8256036264472372E-4</v>
       </c>
       <c r="F515" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Sideways</v>
+        <f t="shared" ref="F515:F578" si="8">IF(E515 &lt;= -0.01, "Very Strong Short",
+ IF(E515 &lt;= -0.004, "Moderate Short",
+ IF(AND(E515 &gt;= -0.004, E515 &lt; 0), "Short Sideways",
+ IF(AND(E515 &gt;= 0, E515 &lt; 0.004), "Long Sideways",
+ IF(E515 &lt;= 0.01, "Moderate Long", "Very Strong Long")))))</f>
+        <v>Short Sideways</v>
       </c>
       <c r="G515" s="1" t="s">
         <v>20</v>
@@ -13415,7 +13431,7 @@
       </c>
       <c r="F516" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G516" s="1" t="s">
         <v>25</v>
@@ -13439,7 +13455,7 @@
       </c>
       <c r="F517" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G517" s="1" t="s">
         <v>22</v>
@@ -13463,7 +13479,7 @@
       </c>
       <c r="F518" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G518" s="1" t="s">
         <v>22</v>
@@ -13511,7 +13527,7 @@
       </c>
       <c r="F520" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G520" s="1" t="s">
         <v>23</v>
@@ -13535,7 +13551,7 @@
       </c>
       <c r="F521" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G521" s="1" t="s">
         <v>21</v>
@@ -13559,7 +13575,7 @@
       </c>
       <c r="F522" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G522" s="1" t="s">
         <v>21</v>
@@ -13583,7 +13599,7 @@
       </c>
       <c r="F523" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G523" s="1" t="s">
         <v>20</v>
@@ -13655,7 +13671,7 @@
       </c>
       <c r="F526" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G526" s="1" t="s">
         <v>20</v>
@@ -13751,7 +13767,7 @@
       </c>
       <c r="F530" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G530" s="1" t="s">
         <v>24</v>
@@ -13799,7 +13815,7 @@
       </c>
       <c r="F532" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G532" s="1" t="s">
         <v>25</v>
@@ -13847,7 +13863,7 @@
       </c>
       <c r="F534" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G534" s="1" t="s">
         <v>23</v>
@@ -13895,7 +13911,7 @@
       </c>
       <c r="F536" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G536" s="1" t="s">
         <v>20</v>
@@ -13919,7 +13935,7 @@
       </c>
       <c r="F537" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G537" s="1" t="s">
         <v>20</v>
@@ -13943,7 +13959,7 @@
       </c>
       <c r="F538" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G538" s="1" t="s">
         <v>22</v>
@@ -13991,7 +14007,7 @@
       </c>
       <c r="F540" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G540" s="1" t="s">
         <v>24</v>
@@ -14015,7 +14031,7 @@
       </c>
       <c r="F541" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G541" s="1" t="s">
         <v>23</v>
@@ -14039,7 +14055,7 @@
       </c>
       <c r="F542" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G542" s="1" t="s">
         <v>25</v>
@@ -14063,7 +14079,7 @@
       </c>
       <c r="F543" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G543" s="1" t="s">
         <v>24</v>
@@ -14087,7 +14103,7 @@
       </c>
       <c r="F544" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G544" s="1" t="s">
         <v>20</v>
@@ -14111,7 +14127,7 @@
       </c>
       <c r="F545" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G545" s="1" t="s">
         <v>25</v>
@@ -14135,7 +14151,7 @@
       </c>
       <c r="F546" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G546" s="1" t="s">
         <v>20</v>
@@ -14159,7 +14175,7 @@
       </c>
       <c r="F547" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G547" s="1" t="s">
         <v>25</v>
@@ -14207,7 +14223,7 @@
       </c>
       <c r="F549" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G549" s="1" t="s">
         <v>20</v>
@@ -14303,7 +14319,7 @@
       </c>
       <c r="F553" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G553" s="1" t="s">
         <v>23</v>
@@ -14327,7 +14343,7 @@
       </c>
       <c r="F554" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G554" s="1" t="s">
         <v>24</v>
@@ -14351,7 +14367,7 @@
       </c>
       <c r="F555" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G555" s="1" t="s">
         <v>22</v>
@@ -14375,7 +14391,7 @@
       </c>
       <c r="F556" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G556" s="1" t="s">
         <v>22</v>
@@ -14399,7 +14415,7 @@
       </c>
       <c r="F557" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G557" s="1" t="s">
         <v>20</v>
@@ -14471,7 +14487,7 @@
       </c>
       <c r="F560" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G560" s="1" t="s">
         <v>23</v>
@@ -14495,7 +14511,7 @@
       </c>
       <c r="F561" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G561" s="1" t="s">
         <v>21</v>
@@ -14543,7 +14559,7 @@
       </c>
       <c r="F563" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G563" s="1" t="s">
         <v>25</v>
@@ -14591,7 +14607,7 @@
       </c>
       <c r="F565" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G565" s="1" t="s">
         <v>22</v>
@@ -14711,7 +14727,7 @@
       </c>
       <c r="F570" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G570" s="1" t="s">
         <v>20</v>
@@ -14735,7 +14751,7 @@
       </c>
       <c r="F571" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G571" s="1" t="s">
         <v>24</v>
@@ -14759,7 +14775,7 @@
       </c>
       <c r="F572" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G572" s="1" t="s">
         <v>22</v>
@@ -14807,7 +14823,7 @@
       </c>
       <c r="F574" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G574" s="1" t="s">
         <v>22</v>
@@ -14831,7 +14847,7 @@
       </c>
       <c r="F575" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G575" s="1" t="s">
         <v>20</v>
@@ -14902,11 +14918,8 @@
         <v>-2.9351353199981787E-3</v>
       </c>
       <c r="F578" s="1" t="str">
-        <f t="shared" ref="F578:F641" si="9">IF(E578 &lt;= -1%, "Very Strong Short",
- IF(E578 &lt;= -0.4%, "Moderate Short",
- IF(E578 &lt; 0.4%, "Sideways",
- IF(E578 &lt;= 1%, "Moderate Long", "Very Strong Long"))))</f>
-        <v>Sideways</v>
+        <f t="shared" si="8"/>
+        <v>Short Sideways</v>
       </c>
       <c r="G578" s="1" t="s">
         <v>23</v>
@@ -14929,7 +14942,11 @@
         <v>-1.2469180141317376E-2</v>
       </c>
       <c r="F579" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="F579:F642" si="9">IF(E579 &lt;= -0.01, "Very Strong Short",
+ IF(E579 &lt;= -0.004, "Moderate Short",
+ IF(AND(E579 &gt;= -0.004, E579 &lt; 0), "Short Sideways",
+ IF(AND(E579 &gt;= 0, E579 &lt; 0.004), "Long Sideways",
+ IF(E579 &lt;= 0.01, "Moderate Long", "Very Strong Long")))))</f>
         <v>Very Strong Short</v>
       </c>
       <c r="G579" s="1" t="s">
@@ -14954,7 +14971,7 @@
       </c>
       <c r="F580" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G580" s="1" t="s">
         <v>20</v>
@@ -14978,7 +14995,7 @@
       </c>
       <c r="F581" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G581" s="1" t="s">
         <v>20</v>
@@ -15242,7 +15259,7 @@
       </c>
       <c r="F592" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G592" s="1" t="s">
         <v>23</v>
@@ -15266,7 +15283,7 @@
       </c>
       <c r="F593" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G593" s="1" t="s">
         <v>20</v>
@@ -15338,7 +15355,7 @@
       </c>
       <c r="F596" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G596" s="1" t="s">
         <v>20</v>
@@ -15362,7 +15379,7 @@
       </c>
       <c r="F597" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G597" s="1" t="s">
         <v>22</v>
@@ -15386,7 +15403,7 @@
       </c>
       <c r="F598" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G598" s="1" t="s">
         <v>20</v>
@@ -15482,7 +15499,7 @@
       </c>
       <c r="F602" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G602" s="1" t="s">
         <v>20</v>
@@ -15506,7 +15523,7 @@
       </c>
       <c r="F603" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G603" s="1" t="s">
         <v>25</v>
@@ -15626,7 +15643,7 @@
       </c>
       <c r="F608" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G608" s="1" t="s">
         <v>25</v>
@@ -15674,7 +15691,7 @@
       </c>
       <c r="F610" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G610" s="1" t="s">
         <v>21</v>
@@ -15698,7 +15715,7 @@
       </c>
       <c r="F611" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G611" s="1" t="s">
         <v>23</v>
@@ -15722,7 +15739,7 @@
       </c>
       <c r="F612" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G612" s="1" t="s">
         <v>24</v>
@@ -15746,7 +15763,7 @@
       </c>
       <c r="F613" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G613" s="1" t="s">
         <v>21</v>
@@ -15770,7 +15787,7 @@
       </c>
       <c r="F614" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G614" s="1" t="s">
         <v>20</v>
@@ -15962,7 +15979,7 @@
       </c>
       <c r="F622" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G622" s="1" t="s">
         <v>21</v>
@@ -15986,7 +16003,7 @@
       </c>
       <c r="F623" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G623" s="1" t="s">
         <v>22</v>
@@ -16010,7 +16027,7 @@
       </c>
       <c r="F624" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G624" s="1" t="s">
         <v>20</v>
@@ -16058,7 +16075,7 @@
       </c>
       <c r="F626" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G626" s="1" t="s">
         <v>25</v>
@@ -16178,7 +16195,7 @@
       </c>
       <c r="F631" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G631" s="1" t="s">
         <v>20</v>
@@ -16202,7 +16219,7 @@
       </c>
       <c r="F632" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G632" s="1" t="s">
         <v>20</v>
@@ -16298,7 +16315,7 @@
       </c>
       <c r="F636" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G636" s="1" t="s">
         <v>24</v>
@@ -16322,7 +16339,7 @@
       </c>
       <c r="F637" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G637" s="1" t="s">
         <v>20</v>
@@ -16441,10 +16458,7 @@
         <v>5.6765249417470879E-3</v>
       </c>
       <c r="F642" s="1" t="str">
-        <f t="shared" ref="F642:F705" si="10">IF(E642 &lt;= -1%, "Very Strong Short",
- IF(E642 &lt;= -0.4%, "Moderate Short",
- IF(E642 &lt; 0.4%, "Sideways",
- IF(E642 &lt;= 1%, "Moderate Long", "Very Strong Long"))))</f>
+        <f t="shared" si="9"/>
         <v>Moderate Long</v>
       </c>
       <c r="G642" s="1" t="s">
@@ -16468,8 +16482,12 @@
         <v>2.1593281898135853E-3</v>
       </c>
       <c r="F643" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>Sideways</v>
+        <f t="shared" ref="F643:F706" si="10">IF(E643 &lt;= -0.01, "Very Strong Short",
+ IF(E643 &lt;= -0.004, "Moderate Short",
+ IF(AND(E643 &gt;= -0.004, E643 &lt; 0), "Short Sideways",
+ IF(AND(E643 &gt;= 0, E643 &lt; 0.004), "Long Sideways",
+ IF(E643 &lt;= 0.01, "Moderate Long", "Very Strong Long")))))</f>
+        <v>Long Sideways</v>
       </c>
       <c r="G643" s="1" t="s">
         <v>21</v>
@@ -16589,7 +16607,7 @@
       </c>
       <c r="F648" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G648" s="1" t="s">
         <v>22</v>
@@ -16637,7 +16655,7 @@
       </c>
       <c r="F650" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G650" s="1" t="s">
         <v>20</v>
@@ -16709,7 +16727,7 @@
       </c>
       <c r="F653" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G653" s="1" t="s">
         <v>20</v>
@@ -16733,7 +16751,7 @@
       </c>
       <c r="F654" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G654" s="1" t="s">
         <v>24</v>
@@ -16757,7 +16775,7 @@
       </c>
       <c r="F655" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G655" s="1" t="s">
         <v>20</v>
@@ -16829,7 +16847,7 @@
       </c>
       <c r="F658" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G658" s="1" t="s">
         <v>23</v>
@@ -16853,7 +16871,7 @@
       </c>
       <c r="F659" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G659" s="1" t="s">
         <v>27</v>
@@ -16901,7 +16919,7 @@
       </c>
       <c r="F661" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G661" s="1" t="s">
         <v>24</v>
@@ -16925,7 +16943,7 @@
       </c>
       <c r="F662" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G662" s="1" t="s">
         <v>22</v>
@@ -16949,7 +16967,7 @@
       </c>
       <c r="F663" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G663" s="1" t="s">
         <v>22</v>
@@ -16973,7 +16991,7 @@
       </c>
       <c r="F664" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G664" s="1" t="s">
         <v>25</v>
@@ -17045,7 +17063,7 @@
       </c>
       <c r="F667" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G667" s="1" t="s">
         <v>25</v>
@@ -17069,7 +17087,7 @@
       </c>
       <c r="F668" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G668" s="1" t="s">
         <v>20</v>
@@ -17117,7 +17135,7 @@
       </c>
       <c r="F670" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G670" s="1" t="s">
         <v>22</v>
@@ -17141,7 +17159,7 @@
       </c>
       <c r="F671" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G671" s="1" t="s">
         <v>22</v>
@@ -17213,7 +17231,7 @@
       </c>
       <c r="F674" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G674" s="1" t="s">
         <v>22</v>
@@ -17261,7 +17279,7 @@
       </c>
       <c r="F676" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G676" s="1" t="s">
         <v>20</v>
@@ -17285,7 +17303,7 @@
       </c>
       <c r="F677" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G677" s="1" t="s">
         <v>20</v>
@@ -17309,7 +17327,7 @@
       </c>
       <c r="F678" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G678" s="1" t="s">
         <v>22</v>
@@ -17381,7 +17399,7 @@
       </c>
       <c r="F681" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G681" s="1" t="s">
         <v>23</v>
@@ -17477,7 +17495,7 @@
       </c>
       <c r="F685" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G685" s="1" t="s">
         <v>20</v>
@@ -17549,7 +17567,7 @@
       </c>
       <c r="F688" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G688" s="1" t="s">
         <v>22</v>
@@ -17621,7 +17639,7 @@
       </c>
       <c r="F691" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G691" s="1" t="s">
         <v>20</v>
@@ -17861,7 +17879,7 @@
       </c>
       <c r="F701" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G701" s="1" t="s">
         <v>24</v>
@@ -17909,7 +17927,7 @@
       </c>
       <c r="F703" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G703" s="1" t="s">
         <v>25</v>
@@ -17980,11 +17998,8 @@
         <v>3.0622520911690931E-4</v>
       </c>
       <c r="F706" s="1" t="str">
-        <f t="shared" ref="F706:F752" si="11">IF(E706 &lt;= -1%, "Very Strong Short",
- IF(E706 &lt;= -0.4%, "Moderate Short",
- IF(E706 &lt; 0.4%, "Sideways",
- IF(E706 &lt;= 1%, "Moderate Long", "Very Strong Long"))))</f>
-        <v>Sideways</v>
+        <f t="shared" si="10"/>
+        <v>Long Sideways</v>
       </c>
       <c r="G706" s="1" t="s">
         <v>23</v>
@@ -18007,8 +18022,12 @@
         <v>-7.1910075423396255E-5</v>
       </c>
       <c r="F707" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>Sideways</v>
+        <f t="shared" ref="F707:F752" si="11">IF(E707 &lt;= -0.01, "Very Strong Short",
+ IF(E707 &lt;= -0.004, "Moderate Short",
+ IF(AND(E707 &gt;= -0.004, E707 &lt; 0), "Short Sideways",
+ IF(AND(E707 &gt;= 0, E707 &lt; 0.004), "Long Sideways",
+ IF(E707 &lt;= 0.01, "Moderate Long", "Very Strong Long")))))</f>
+        <v>Short Sideways</v>
       </c>
       <c r="G707" s="1" t="s">
         <v>22</v>
@@ -18032,7 +18051,7 @@
       </c>
       <c r="F708" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G708" s="1" t="s">
         <v>21</v>
@@ -18080,7 +18099,7 @@
       </c>
       <c r="F710" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G710" s="1" t="s">
         <v>22</v>
@@ -18104,7 +18123,7 @@
       </c>
       <c r="F711" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G711" s="1" t="s">
         <v>20</v>
@@ -18224,7 +18243,7 @@
       </c>
       <c r="F716" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G716" s="1" t="s">
         <v>20</v>
@@ -18272,7 +18291,7 @@
       </c>
       <c r="F718" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G718" s="1" t="s">
         <v>26</v>
@@ -18296,7 +18315,7 @@
       </c>
       <c r="F719" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G719" s="1" t="s">
         <v>20</v>
@@ -18464,7 +18483,7 @@
       </c>
       <c r="F726" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G726" s="1" t="s">
         <v>25</v>
@@ -18488,7 +18507,7 @@
       </c>
       <c r="F727" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G727" s="1" t="s">
         <v>24</v>
@@ -18512,7 +18531,7 @@
       </c>
       <c r="F728" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G728" s="1" t="s">
         <v>20</v>
@@ -18536,7 +18555,7 @@
       </c>
       <c r="F729" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G729" s="1" t="s">
         <v>20</v>
@@ -18584,7 +18603,7 @@
       </c>
       <c r="F731" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G731" s="1" t="s">
         <v>22</v>
@@ -18680,7 +18699,7 @@
       </c>
       <c r="F735" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G735" s="1" t="s">
         <v>24</v>
@@ -18704,7 +18723,7 @@
       </c>
       <c r="F736" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G736" s="1" t="s">
         <v>20</v>
@@ -18800,7 +18819,7 @@
       </c>
       <c r="F740" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G740" s="1" t="s">
         <v>22</v>
@@ -18824,7 +18843,7 @@
       </c>
       <c r="F741" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G741" s="1" t="s">
         <v>23</v>
@@ -18848,7 +18867,7 @@
       </c>
       <c r="F742" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G742" s="1" t="s">
         <v>22</v>
@@ -18920,7 +18939,7 @@
       </c>
       <c r="F745" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G745" s="1" t="s">
         <v>23</v>
@@ -18992,7 +19011,7 @@
       </c>
       <c r="F748" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G748" s="1" t="s">
         <v>20</v>
@@ -19042,7 +19061,7 @@
       </c>
       <c r="F750" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>Sideways</v>
+        <v>Long Sideways</v>
       </c>
       <c r="G750" s="1" t="s">
         <v>20</v>
@@ -19067,7 +19086,7 @@
       </c>
       <c r="F751" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
       <c r="G751" s="1" t="s">
         <v>24</v>
@@ -19079,7 +19098,7 @@
       </c>
       <c r="F752" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>Sideways</v>
+        <v>Short Sideways</v>
       </c>
     </row>
     <row r="753" spans="5:5" x14ac:dyDescent="0.25">
@@ -19101,6 +19120,7 @@
       <c r="E758" s="4"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G758" xr:uid="{A0E35542-6092-4AD1-8995-7E0681A4E720}"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576" xr:uid="{5EF13120-4616-494A-8E18-3C3524F7A10D}">
       <formula1>"Doji, Strong Green, Strong Red, Green Hammer, Red Hammer, Green Inv Hammer, Red Inv Hammer, Green, Red"</formula1>

--- a/Daily_Summary_with_Prioritized_Signal.xlsx
+++ b/Daily_Summary_with_Prioritized_Signal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\singh\Downloads\New Toy Bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9E616C-0435-4F4C-ACB2-B49440618F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F012C6E3-9A86-4359-9086-BF98B57FC9F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8940" yWindow="1680" windowWidth="18705" windowHeight="12420" xr2:uid="{5126E1B4-11B8-4C46-9D7B-A4F34DC996FA}"/>
+    <workbookView xWindow="42540" yWindow="735" windowWidth="14775" windowHeight="12420" xr2:uid="{5126E1B4-11B8-4C46-9D7B-A4F34DC996FA}"/>
   </bookViews>
   <sheets>
     <sheet name="NIFTY_Daily_Move_Summary" sheetId="1" r:id="rId1"/>
